--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N2">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q2">
-        <v>0.2030701720265556</v>
+        <v>0.1270539266606667</v>
       </c>
       <c r="R2">
-        <v>1.827631548239</v>
+        <v>1.143485339946</v>
       </c>
       <c r="S2">
-        <v>0.001348599686748495</v>
+        <v>0.0009134159079288777</v>
       </c>
       <c r="T2">
-        <v>0.001348599686748496</v>
+        <v>0.0009134159079288777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,22 +626,22 @@
         <v>61.812468</v>
       </c>
       <c r="O3">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P3">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q3">
         <v>3.294611412452</v>
       </c>
       <c r="R3">
-        <v>29.65150271206801</v>
+        <v>29.651502712068</v>
       </c>
       <c r="S3">
-        <v>0.02187968757031317</v>
+        <v>0.02368561565684628</v>
       </c>
       <c r="T3">
-        <v>0.02187968757031318</v>
+        <v>0.02368561565684628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N4">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O4">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P4">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q4">
-        <v>0.1042473954174444</v>
+        <v>0.04592316253288889</v>
       </c>
       <c r="R4">
-        <v>0.9382265587570001</v>
+        <v>0.413308462796</v>
       </c>
       <c r="S4">
-        <v>0.0006923124326990147</v>
+        <v>0.0003301507344355856</v>
       </c>
       <c r="T4">
-        <v>0.000692312432699015</v>
+        <v>0.0003301507344355855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N5">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O5">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P5">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q5">
-        <v>0.2654220811073333</v>
+        <v>0.1838109763782222</v>
       </c>
       <c r="R5">
-        <v>2.388798729966</v>
+        <v>1.654298787404</v>
       </c>
       <c r="S5">
-        <v>0.001762681992462558</v>
+        <v>0.001321453608625734</v>
       </c>
       <c r="T5">
-        <v>0.001762681992462559</v>
+        <v>0.001321453608625734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7481240000000001</v>
+        <v>0.1975403333333333</v>
       </c>
       <c r="N6">
-        <v>2.244372</v>
+        <v>0.5926210000000001</v>
       </c>
       <c r="O6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="P6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="Q6">
-        <v>0.1196252769746667</v>
+        <v>0.03158676514677778</v>
       </c>
       <c r="R6">
-        <v>1.076627492772</v>
+        <v>0.284280886321</v>
       </c>
       <c r="S6">
-        <v>0.0007944377524540666</v>
+        <v>0.0002270835268408293</v>
       </c>
       <c r="T6">
-        <v>0.0007944377524540668</v>
+        <v>0.0002270835268408293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N7">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O7">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P7">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q7">
-        <v>7.466403497242667</v>
+        <v>4.671468354464</v>
       </c>
       <c r="R7">
-        <v>67.197631475184</v>
+        <v>42.043215190176</v>
       </c>
       <c r="S7">
-        <v>0.04958477809435537</v>
+        <v>0.03358411361618098</v>
       </c>
       <c r="T7">
-        <v>0.04958477809435538</v>
+        <v>0.03358411361618097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,10 +936,10 @@
         <v>61.812468</v>
       </c>
       <c r="O8">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P8">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q8">
         <v>121.134964955712</v>
@@ -948,10 +948,10 @@
         <v>1090.214684601408</v>
       </c>
       <c r="S8">
-        <v>0.8044636696924654</v>
+        <v>0.8708633169006056</v>
       </c>
       <c r="T8">
-        <v>0.8044636696924657</v>
+        <v>0.8708633169006055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N9">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O9">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P9">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q9">
-        <v>3.832926864421334</v>
+        <v>1.688484615530667</v>
       </c>
       <c r="R9">
-        <v>34.496341779792</v>
+        <v>15.196361539776</v>
       </c>
       <c r="S9">
-        <v>0.02545466878322504</v>
+        <v>0.01213885118433217</v>
       </c>
       <c r="T9">
-        <v>0.02545466878322504</v>
+        <v>0.01213885118433216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N10">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O10">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P10">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q10">
-        <v>9.758933746144001</v>
+        <v>6.758289034602667</v>
       </c>
       <c r="R10">
-        <v>87.830403715296</v>
+        <v>60.824601311424</v>
       </c>
       <c r="S10">
-        <v>0.06480959198344531</v>
+        <v>0.04858668186678286</v>
       </c>
       <c r="T10">
-        <v>0.06480959198344532</v>
+        <v>0.04858668186678286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7481240000000001</v>
+        <v>0.1975403333333333</v>
       </c>
       <c r="N11">
-        <v>2.244372</v>
+        <v>0.5926210000000001</v>
       </c>
       <c r="O11">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="P11">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="Q11">
-        <v>4.398334710848001</v>
+        <v>1.161369645797333</v>
       </c>
       <c r="R11">
-        <v>39.58501239763201</v>
+        <v>10.452326812176</v>
       </c>
       <c r="S11">
-        <v>0.02920957201183131</v>
+        <v>0.008349316997421197</v>
       </c>
       <c r="T11">
-        <v>0.02920957201183131</v>
+        <v>0.008349316997421197</v>
       </c>
     </row>
   </sheetData>
